--- a/static/case1.xlsx
+++ b/static/case1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t>id</t>
   </si>
@@ -53,191 +53,149 @@
     <t>实际结果</t>
   </si>
   <si>
-    <t>Imooc-01</t>
-  </si>
-  <si>
     <t>登录</t>
   </si>
   <si>
-    <t>http://m.imooc.com/passport/user/login</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
-    <t>Post</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>select * from web_user where Name='mushishi'</t>
-  </si>
-  <si>
-    <t>Imooc-02</t>
-  </si>
-  <si>
-    <t>手机登录</t>
-  </si>
-  <si>
-    <t>http://www.imooc.com/api3/userloginbyemail</t>
-  </si>
-  <si>
-    <t>user1</t>
-  </si>
-  <si>
-    <t>"uid": "5249201"</t>
-  </si>
-  <si>
-    <t>Imooc-03</t>
-  </si>
-  <si>
-    <t>实战list</t>
-  </si>
-  <si>
-    <t>http://www.imooc.com/api3/getbanneradvertver2</t>
-  </si>
-  <si>
-    <t>szlist</t>
-  </si>
-  <si>
-    <t>"uid": "5249202"</t>
-  </si>
-  <si>
-    <t>Imooc-4</t>
-  </si>
-  <si>
-    <t>课程信息</t>
-  </si>
-  <si>
-    <t>http://class.imooc.com/api/scinfo</t>
-  </si>
-  <si>
-    <t>coureinfo</t>
-  </si>
-  <si>
-    <t>"uid": "5249203"</t>
-  </si>
-  <si>
-    <t>Imooc-5</t>
-  </si>
-  <si>
-    <t>课程类型</t>
-  </si>
-  <si>
-    <t>http://www.imooc.com/api3/newgetcoursetype</t>
-  </si>
-  <si>
-    <t>coursetype</t>
-  </si>
-  <si>
-    <t>"uid": "5249204"</t>
-  </si>
-  <si>
-    <t>Imooc-6</t>
-  </si>
-  <si>
-    <t>课程list</t>
-  </si>
-  <si>
-    <t>http://www.imooc.com/api3/courselistinfo</t>
-  </si>
-  <si>
-    <t>courseList</t>
-  </si>
-  <si>
-    <t>"uid": "5249205"</t>
-  </si>
-  <si>
-    <t>Imooc-8</t>
-  </si>
-  <si>
-    <t>获取课程信息</t>
-  </si>
-  <si>
-    <t>http://www.imooc.com/api3/getcourseintro</t>
-  </si>
-  <si>
-    <t>getcourseinfo</t>
-  </si>
-  <si>
-    <t>"uid": "5249206"</t>
-  </si>
-  <si>
-    <t>Imooc-9</t>
-  </si>
-  <si>
-    <t>获取课程章节信息</t>
-  </si>
-  <si>
-    <t>http://www.imooc.com/api3/getmedialist</t>
-  </si>
-  <si>
-    <t>getmedialist</t>
-  </si>
-  <si>
-    <t>"uid": "5249207"</t>
-  </si>
-  <si>
-    <t>Imooc-10</t>
-  </si>
-  <si>
-    <t>收藏课程</t>
-  </si>
-  <si>
-    <t>http://www.imooc.com/api3/follow</t>
-  </si>
-  <si>
-    <t>follow</t>
-  </si>
-  <si>
-    <t>"uid": "5249208"</t>
-  </si>
-  <si>
-    <t>Imooc-11</t>
-  </si>
-  <si>
-    <t>下单</t>
-  </si>
-  <si>
-    <t>http://order.imooc.com/api/pay/submitorder</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>Imooc-12</t>
-  </si>
-  <si>
-    <t>支付</t>
-  </si>
-  <si>
-    <t>http://order.imooc.com/api/pay/pay</t>
-  </si>
-  <si>
-    <t>data.out_trade_no</t>
-  </si>
-  <si>
-    <t>trade_number</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>"uid": "5249200"</t>
-  </si>
-  <si>
     <t>pass</t>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+      </rPr>
+      <t>ogin</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pms/login</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+      </rPr>
+      <t>et</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台菜单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pms/menu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加酒店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改酒店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询酒店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pms/hotel/4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>es</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ost</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ut</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pms/hotel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询用户创建酒店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pms/common/facility</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询酒店设施列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -253,6 +211,24 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -272,17 +248,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -579,9 +568,20 @@
   </sheetPr>
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="41.28515625" customWidth="1"/>
+    <col min="3" max="3" width="81.85546875" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="11" max="11" width="50.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
@@ -622,278 +622,195 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="J2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="F3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1"/>
+      <c r="B4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="C4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="C5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1"/>
+      <c r="B6" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1" t="s">
+      <c r="C6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1"/>
+      <c r="B7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="1" t="s">
+      <c r="E7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="F7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1"/>
+      <c r="B8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="D8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="https://dev.yunsuit.com/pms/login"/>
+  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
-  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;P</oddHeader>
     <oddFooter>&amp;F</oddFooter>

--- a/static/case1.xlsx
+++ b/static/case1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>id</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>登录</t>
-  </si>
-  <si>
-    <t>yes</t>
   </si>
   <si>
     <t>no</t>
@@ -189,6 +186,17 @@
   <si>
     <t>查询酒店设施列表</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pms/room</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增房间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>createRoom</t>
   </si>
 </sst>
 </file>
@@ -568,8 +576,8 @@
   </sheetPr>
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -629,23 +637,23 @@
         <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -653,19 +661,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
+      <c r="D3" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="1"/>
@@ -673,16 +681,16 @@
     <row r="4" spans="1:12">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -690,16 +698,16 @@
     <row r="5" spans="1:12">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -707,19 +715,19 @@
     <row r="6" spans="1:12">
       <c r="A6" s="1"/>
       <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -727,19 +735,19 @@
     <row r="7" spans="1:12">
       <c r="A7" s="1"/>
       <c r="B7" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="F7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -747,30 +755,43 @@
     <row r="8" spans="1:12">
       <c r="A8" s="1"/>
       <c r="B8" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="F8" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="B9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:12">

--- a/static/case1.xlsx
+++ b/static/case1.xlsx
@@ -577,7 +577,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -780,8 +780,8 @@
       <c r="C9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>26</v>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>28</v>

--- a/static/case1.xlsx
+++ b/static/case1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
@@ -188,15 +188,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>新增房间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>createRoom</t>
+  </si>
+  <si>
+    <t>查询房间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>/pms/room</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>新增房间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>createRoom</t>
+    <t>/pms/room/1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -577,7 +585,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -588,6 +596,7 @@
     <col min="7" max="7" width="26.7109375" customWidth="1"/>
     <col min="8" max="8" width="19.42578125" customWidth="1"/>
     <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" customWidth="1"/>
     <col min="11" max="11" width="50.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -775,10 +784,10 @@
     <row r="9" spans="1:12">
       <c r="A9" s="1"/>
       <c r="B9" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -790,16 +799,27 @@
         <v>25</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="B10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
